--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Analisis/Ranking_Estadistico_HLN_DM.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Analisis/Ranking_Estadistico_HLN_DM.xlsx
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="H2" t="n">
         <v>0.00321618472380869</v>
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="H3" t="n">
         <v>0.003736373811799263</v>
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="H4" t="n">
         <v>0.004159327562480111</v>
@@ -582,29 +582,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
         <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0.375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01172241056471864</v>
+        <v>0.01282201731032759</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009437152004306348</v>
+        <v>0.01386297768967421</v>
       </c>
     </row>
     <row r="6">
@@ -613,29 +613,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
         <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0.375</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01282201731032759</v>
+        <v>0.01251271992671085</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01386297768967421</v>
+        <v>0.009374451480722367</v>
       </c>
     </row>
     <row r="7">
@@ -644,29 +644,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
         <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0.375</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01251271992671085</v>
+        <v>0.01172241056471864</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009374451480722367</v>
+        <v>0.009437152004306348</v>
       </c>
     </row>
     <row r="8">
@@ -710,25 +710,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06249522516388416</v>
+        <v>0.06089699433753594</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06256977917676773</v>
+        <v>0.06090937552049344</v>
       </c>
     </row>
     <row r="10">
@@ -744,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>-1</v>
       </c>
       <c r="J2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -1008,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1082,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>-1</v>
@@ -1210,28 +1210,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.379635784282129e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.480254781416335e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.786348846621877e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>3.143424241791593e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.6652994244889e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.780845867613515e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.30892262983906e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.624530074684216e-06</v>
+        <v>0.01012652070222364</v>
       </c>
     </row>
     <row r="3">
@@ -1241,31 +1241,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.379635784282129e-06</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1266293078911707</v>
+        <v>0.1392345048542072</v>
       </c>
       <c r="E3" t="n">
-        <v>1.025665676634979e-05</v>
+        <v>0.04136835760612301</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.638250922031403e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>5.763840300598844e-07</v>
+        <v>0.006275725501243778</v>
       </c>
       <c r="H3" t="n">
-        <v>4.776641104875523e-08</v>
+        <v>0.00936760558711569</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1681014538360457</v>
+        <v>0.3028324417273924</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.615556742886383e-10</v>
       </c>
     </row>
     <row r="4">
@@ -1275,31 +1275,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.480254781416335e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1266293078911707</v>
+        <v>0.1392345048542072</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>6.795188383756923e-05</v>
+        <v>0.05810894325919702</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.765304885381624e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>1.33477125665582e-05</v>
+        <v>0.0108725479865075</v>
       </c>
       <c r="H4" t="n">
-        <v>3.029632978046592e-06</v>
+        <v>0.02043802808746675</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5037018158370499</v>
+        <v>0.502421808101027</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.352278067301427e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.786348846621877e-12</v>
       </c>
       <c r="C5" t="n">
-        <v>1.025665676634979e-05</v>
+        <v>0.04136835760612301</v>
       </c>
       <c r="D5" t="n">
-        <v>6.795188383756923e-05</v>
+        <v>0.05810894325919702</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.246114405579647e-11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9177942095857894</v>
+        <v>0.9594857776294796</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7030573031978005</v>
+        <v>0.8586457790563453</v>
       </c>
       <c r="I5" t="n">
-        <v>1.178036129223514e-05</v>
+        <v>0.04617676461249665</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.999666137621816e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1343,31 +1343,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>3.143424241791593e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.638250922031403e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.765304885381624e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.246114405579647e-11</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7.506805652868209e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>7.699130873528581e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.471373679784449e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1769138513236341</v>
+        <v>0.2367654235183649</v>
       </c>
     </row>
     <row r="7">
@@ -1377,31 +1377,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4.6652994244889e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>5.763840300598844e-07</v>
+        <v>0.006275725501243778</v>
       </c>
       <c r="D7" t="n">
-        <v>1.33477125665582e-05</v>
+        <v>0.0108725479865075</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9177942095857894</v>
+        <v>0.9594857776294796</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7.506805652868209e-05</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4700540223322469</v>
+        <v>0.6031149108104068</v>
       </c>
       <c r="I7" t="n">
-        <v>6.487909620433996e-06</v>
+        <v>0.01161501723367997</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3.229451794206639e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1411,31 +1411,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.780845867613515e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>4.776641104875523e-08</v>
+        <v>0.00936760558711569</v>
       </c>
       <c r="D8" t="n">
-        <v>3.029632978046592e-06</v>
+        <v>0.02043802808746675</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7030573031978005</v>
+        <v>0.8586457790563453</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7.699130873528581e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4700540223322469</v>
+        <v>0.6031149108104068</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110090465550329e-06</v>
+        <v>0.01634453730758567</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.874935810970314e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1.30892262983906e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1681014538360457</v>
+        <v>0.3028324417273924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5037018158370499</v>
+        <v>0.502421808101027</v>
       </c>
       <c r="E9" t="n">
-        <v>1.178036129223514e-05</v>
+        <v>0.04617676461249665</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.471373679784449e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>6.487909620433996e-06</v>
+        <v>0.01161501723367997</v>
       </c>
       <c r="H9" t="n">
-        <v>1.110090465550329e-06</v>
+        <v>0.01634453730758567</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.355204837238944e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.624530074684216e-06</v>
+        <v>0.01012652070222364</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.615556742886383e-10</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.352278067301427e-09</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3.999666137621816e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1769138513236341</v>
+        <v>0.2367654235183649</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.229451794206639e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.874935810970314e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.355204837238944e-10</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1582,28 +1582,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.32885097221444</v>
+        <v>18.98685058412423</v>
       </c>
       <c r="D2" t="n">
-        <v>36.89699016965602</v>
+        <v>18.76215102322204</v>
       </c>
       <c r="E2" t="n">
-        <v>113.0309113561526</v>
+        <v>183.1706732114317</v>
       </c>
       <c r="F2" t="n">
-        <v>14.89091086045629</v>
+        <v>16.51380863805696</v>
       </c>
       <c r="G2" t="n">
-        <v>20.82854577122161</v>
+        <v>10.38592333739095</v>
       </c>
       <c r="H2" t="n">
-        <v>21.62690403248528</v>
+        <v>10.34161010525447</v>
       </c>
       <c r="I2" t="n">
-        <v>40.2370852304342</v>
+        <v>19.15650276165442</v>
       </c>
       <c r="J2" t="n">
-        <v>6.095257449039619</v>
+        <v>3.696816564100545</v>
       </c>
     </row>
     <row r="3">
@@ -1613,31 +1613,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-39.32885097221444</v>
+        <v>-18.98685058412423</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.599616439226649</v>
+        <v>-1.704176298358961</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.416889187051291</v>
+        <v>-2.587179642278933</v>
       </c>
       <c r="F3" t="n">
-        <v>-38.748026852145</v>
+        <v>-18.44296674331745</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.4813839757133</v>
+        <v>-4.111508858314436</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.431177917701928</v>
+        <v>-3.762802922481459</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.437846968202354</v>
+        <v>-1.126883096868611</v>
       </c>
       <c r="J3" t="n">
-        <v>-154.0384641365638</v>
+        <v>-75.565206540316</v>
       </c>
     </row>
     <row r="4">
@@ -1647,31 +1647,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-36.89699016965602</v>
+        <v>-18.76215102322204</v>
       </c>
       <c r="C4" t="n">
-        <v>1.599616439226649</v>
+        <v>1.704176298358961</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.724521168310971</v>
+        <v>-2.336658253554878</v>
       </c>
       <c r="F4" t="n">
-        <v>-36.60569562582697</v>
+        <v>-18.21125479950634</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.320429567793973</v>
+        <v>-3.637095357107105</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.864880207506701</v>
+        <v>-3.125625818656307</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6886859802404929</v>
+        <v>0.7133445801181342</v>
       </c>
       <c r="J4" t="n">
-        <v>-87.86846599523608</v>
+        <v>-60.63589626967103</v>
       </c>
     </row>
     <row r="5">
@@ -1681,31 +1681,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-113.0309113561526</v>
+        <v>-183.1706732114317</v>
       </c>
       <c r="C5" t="n">
-        <v>5.416889187051291</v>
+        <v>2.587179642278933</v>
       </c>
       <c r="D5" t="n">
-        <v>4.724521168310971</v>
+        <v>2.336658253554878</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-220.6719412779602</v>
+        <v>-120.1063297726486</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1058956558518557</v>
+        <v>0.05295641721158947</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3915669555419085</v>
+        <v>0.1859040253053646</v>
       </c>
       <c r="I5" t="n">
-        <v>5.366161821198251</v>
+        <v>2.505605888927604</v>
       </c>
       <c r="J5" t="n">
-        <v>-32.68503335961174</v>
+        <v>-15.85117438413948</v>
       </c>
     </row>
     <row r="6">
@@ -1715,31 +1715,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.89091086045629</v>
+        <v>-16.51380863805696</v>
       </c>
       <c r="C6" t="n">
-        <v>38.748026852145</v>
+        <v>18.44296674331745</v>
       </c>
       <c r="D6" t="n">
-        <v>36.60569562582697</v>
+        <v>18.21125479950634</v>
       </c>
       <c r="E6" t="n">
-        <v>220.6719412779602</v>
+        <v>120.1063297726486</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.98848175144052</v>
+        <v>9.554397171831452</v>
       </c>
       <c r="H6" t="n">
-        <v>20.02330204869826</v>
+        <v>9.511896380309352</v>
       </c>
       <c r="I6" t="n">
-        <v>40.34487150437643</v>
+        <v>18.78125838933693</v>
       </c>
       <c r="J6" t="n">
-        <v>1.407674669720133</v>
+        <v>1.314255571822361</v>
       </c>
     </row>
     <row r="7">
@@ -1749,31 +1749,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.82854577122161</v>
+        <v>-10.38592333739095</v>
       </c>
       <c r="C7" t="n">
-        <v>6.4813839757133</v>
+        <v>4.111508858314436</v>
       </c>
       <c r="D7" t="n">
-        <v>5.320429567793973</v>
+        <v>3.637095357107105</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1058956558518557</v>
+        <v>-0.05295641721158947</v>
       </c>
       <c r="F7" t="n">
-        <v>-18.98848175144052</v>
+        <v>-9.554397171831452</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7444955882018112</v>
+        <v>0.5485443095308065</v>
       </c>
       <c r="I7" t="n">
-        <v>5.584801970060473</v>
+        <v>3.582006508074632</v>
       </c>
       <c r="J7" t="n">
-        <v>-31.37592914645728</v>
+        <v>-16.43823682671145</v>
       </c>
     </row>
     <row r="8">
@@ -1783,31 +1783,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.62690403248528</v>
+        <v>-10.34161010525447</v>
       </c>
       <c r="C8" t="n">
-        <v>7.431177917701928</v>
+        <v>3.762802922481459</v>
       </c>
       <c r="D8" t="n">
-        <v>5.864880207506701</v>
+        <v>3.125625818656307</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3915669555419085</v>
+        <v>-0.1859040253053646</v>
       </c>
       <c r="F8" t="n">
-        <v>-20.02330204869826</v>
+        <v>-9.511896380309352</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7444955882018112</v>
+        <v>-0.5485443095308065</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.236655936646484</v>
+        <v>3.30310340340034</v>
       </c>
       <c r="J8" t="n">
-        <v>-38.468717962109</v>
+        <v>-16.76609808646352</v>
       </c>
     </row>
     <row r="9">
@@ -1817,31 +1817,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-40.2370852304342</v>
+        <v>-19.15650276165442</v>
       </c>
       <c r="C9" t="n">
-        <v>1.437846968202354</v>
+        <v>1.126883096868611</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6886859802404929</v>
+        <v>-0.7133445801181342</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.366161821198251</v>
+        <v>-2.505605888927604</v>
       </c>
       <c r="F9" t="n">
-        <v>-40.34487150437643</v>
+        <v>-18.78125838933693</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.584801970060473</v>
+        <v>-3.582006508074632</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.236655936646484</v>
+        <v>-3.30310340340034</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-147.8377224027542</v>
+        <v>-89.00326940324739</v>
       </c>
     </row>
     <row r="10">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.095257449039619</v>
+        <v>-3.696816564100545</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0384641365638</v>
+        <v>75.565206540316</v>
       </c>
       <c r="D10" t="n">
-        <v>87.86846599523608</v>
+        <v>60.63589626967103</v>
       </c>
       <c r="E10" t="n">
-        <v>32.68503335961174</v>
+        <v>15.85117438413948</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.407674669720133</v>
+        <v>-1.314255571822361</v>
       </c>
       <c r="G10" t="n">
-        <v>31.37592914645728</v>
+        <v>16.43823682671145</v>
       </c>
       <c r="H10" t="n">
-        <v>38.468717962109</v>
+        <v>16.76609808646352</v>
       </c>
       <c r="I10" t="n">
-        <v>147.8377224027542</v>
+        <v>89.00326940324739</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Analisis/Ranking_Estadistico_HLN_DM.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Analisis/Ranking_Estadistico_HLN_DM.xlsx
@@ -632,10 +632,10 @@
         <v>0.375</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01251271992671085</v>
+        <v>0.01256259791707335</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009374451480722367</v>
+        <v>0.009679735796162117</v>
       </c>
     </row>
     <row r="7">
@@ -663,10 +663,10 @@
         <v>0.375</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01172241056471864</v>
+        <v>0.01173646236175684</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009437152004306348</v>
+        <v>0.009338790450295106</v>
       </c>
     </row>
     <row r="8">
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06089699433753594</v>
+        <v>0.06498615654567919</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06090937552049344</v>
+        <v>0.06600441838929333</v>
       </c>
     </row>
     <row r="10">
@@ -1222,16 +1222,16 @@
         <v>3.143424241791593e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6652994244889e-05</v>
+        <v>4.78992950014856e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>4.780845867613515e-05</v>
+        <v>4.877003845815686e-05</v>
       </c>
       <c r="I2" t="n">
         <v>1.30892262983906e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01012652070222364</v>
+        <v>0.001427792481607959</v>
       </c>
     </row>
     <row r="3">
@@ -1256,16 +1256,16 @@
         <v>1.638250922031403e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006275725501243778</v>
+        <v>0.006569872598065851</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00936760558711569</v>
+        <v>0.009736967387809159</v>
       </c>
       <c r="I3" t="n">
         <v>0.3028324417273924</v>
       </c>
       <c r="J3" t="n">
-        <v>3.615556742886383e-10</v>
+        <v>4.014213428327196e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1290,16 +1290,16 @@
         <v>1.765304885381624e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0108725479865075</v>
+        <v>0.01139646693791385</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02043802808746675</v>
+        <v>0.02122358983114836</v>
       </c>
       <c r="I4" t="n">
         <v>0.502421808101027</v>
       </c>
       <c r="J4" t="n">
-        <v>1.352278067301427e-09</v>
+        <v>4.306503971207576e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1324,16 +1324,16 @@
         <v>2.246114405579647e-11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9594857776294796</v>
+        <v>0.9661412312661364</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8586457790563453</v>
+        <v>0.8608817972672327</v>
       </c>
       <c r="I5" t="n">
         <v>0.04617676461249665</v>
       </c>
       <c r="J5" t="n">
-        <v>3.999666137621816e-06</v>
+        <v>1.163064689002624e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1358,16 +1358,16 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>7.506805652868209e-05</v>
+        <v>7.719447554777048e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>7.699130873528581e-05</v>
+        <v>7.871524290248288e-05</v>
       </c>
       <c r="I6" t="n">
         <v>1.471373679784449e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2367654235183649</v>
+        <v>0.4922838102681615</v>
       </c>
     </row>
     <row r="7">
@@ -1377,31 +1377,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.6652994244889e-05</v>
+        <v>4.78992950014856e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006275725501243778</v>
+        <v>0.006569872598065851</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0108725479865075</v>
+        <v>0.01139646693791385</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9594857776294796</v>
+        <v>0.9661412312661364</v>
       </c>
       <c r="F7" t="n">
-        <v>7.506805652868209e-05</v>
+        <v>7.719447554777048e-05</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6031149108104068</v>
+        <v>0.6003746506766476</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01161501723367997</v>
+        <v>0.0118974966548806</v>
       </c>
       <c r="J7" t="n">
-        <v>3.229451794206639e-06</v>
+        <v>3.35641213466964e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1411,31 +1411,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.780845867613515e-05</v>
+        <v>4.877003845815686e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00936760558711569</v>
+        <v>0.009736967387809159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02043802808746675</v>
+        <v>0.02122358983114836</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8586457790563453</v>
+        <v>0.8608817972672327</v>
       </c>
       <c r="F8" t="n">
-        <v>7.699130873528581e-05</v>
+        <v>7.871524290248288e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6031149108104068</v>
+        <v>0.6003746506766476</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01634453730758567</v>
+        <v>0.01685804575200978</v>
       </c>
       <c r="J8" t="n">
-        <v>2.874935810970314e-06</v>
+        <v>3.483864252684654e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1460,16 +1460,16 @@
         <v>1.471373679784449e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01161501723367997</v>
+        <v>0.0118974966548806</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01634453730758567</v>
+        <v>0.01685804575200978</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.355204837238944e-10</v>
+        <v>2.978936606279348e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01012652070222364</v>
+        <v>0.001427792481607959</v>
       </c>
       <c r="C10" t="n">
-        <v>3.615556742886383e-10</v>
+        <v>4.014213428327196e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>1.352278067301427e-09</v>
+        <v>4.306503971207576e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>3.999666137621816e-06</v>
+        <v>1.163064689002624e-08</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2367654235183649</v>
+        <v>0.4922838102681615</v>
       </c>
       <c r="G10" t="n">
-        <v>3.229451794206639e-06</v>
+        <v>3.35641213466964e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.874935810970314e-06</v>
+        <v>3.483864252684654e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>1.355204837238944e-10</v>
+        <v>2.978936606279348e-07</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1594,16 +1594,16 @@
         <v>16.51380863805696</v>
       </c>
       <c r="G2" t="n">
-        <v>10.38592333739095</v>
+        <v>10.33817915900059</v>
       </c>
       <c r="H2" t="n">
-        <v>10.34161010525447</v>
+        <v>10.30566826406916</v>
       </c>
       <c r="I2" t="n">
         <v>19.15650276165442</v>
       </c>
       <c r="J2" t="n">
-        <v>3.696816564100545</v>
+        <v>5.563768475740805</v>
       </c>
     </row>
     <row r="3">
@@ -1628,16 +1628,16 @@
         <v>-18.44296674331745</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.111508858314436</v>
+        <v>-4.07080263500573</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.762802922481459</v>
+        <v>-3.7299740552165</v>
       </c>
       <c r="I3" t="n">
         <v>-1.126883096868611</v>
       </c>
       <c r="J3" t="n">
-        <v>-75.565206540316</v>
+        <v>-23.38171515588723</v>
       </c>
     </row>
     <row r="4">
@@ -1662,16 +1662,16 @@
         <v>-18.21125479950634</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.637095357107105</v>
+        <v>-3.597807817614061</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.125625818656307</v>
+        <v>-3.09603618672405</v>
       </c>
       <c r="I4" t="n">
         <v>0.7133445801181342</v>
       </c>
       <c r="J4" t="n">
-        <v>-60.63589626967103</v>
+        <v>-23.10678826514726</v>
       </c>
     </row>
     <row r="5">
@@ -1696,16 +1696,16 @@
         <v>-120.1063297726486</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05295641721158947</v>
+        <v>0.04424975004056525</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1859040253053646</v>
+        <v>0.1829245400964258</v>
       </c>
       <c r="I5" t="n">
         <v>2.505605888927604</v>
       </c>
       <c r="J5" t="n">
-        <v>-15.85117438413948</v>
+        <v>-42.32998546331976</v>
       </c>
     </row>
     <row r="6">
@@ -1730,16 +1730,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.554397171831452</v>
+        <v>9.50747858442066</v>
       </c>
       <c r="H6" t="n">
-        <v>9.511896380309352</v>
+        <v>9.474831469846844</v>
       </c>
       <c r="I6" t="n">
         <v>18.78125838933693</v>
       </c>
       <c r="J6" t="n">
-        <v>1.314255571822361</v>
+        <v>-0.7310756733642315</v>
       </c>
     </row>
     <row r="7">
@@ -1749,31 +1749,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.38592333739095</v>
+        <v>-10.33817915900059</v>
       </c>
       <c r="C7" t="n">
-        <v>4.111508858314436</v>
+        <v>4.07080263500573</v>
       </c>
       <c r="D7" t="n">
-        <v>3.637095357107105</v>
+        <v>3.597807817614061</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05295641721158947</v>
+        <v>-0.04424975004056525</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.554397171831452</v>
+        <v>-9.50747858442066</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5485443095308065</v>
+        <v>0.5527984338458297</v>
       </c>
       <c r="I7" t="n">
-        <v>3.582006508074632</v>
+        <v>3.562063661480992</v>
       </c>
       <c r="J7" t="n">
-        <v>-16.43823682671145</v>
+        <v>-10.99940859250579</v>
       </c>
     </row>
     <row r="8">
@@ -1783,31 +1783,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.34161010525447</v>
+        <v>-10.30566826406916</v>
       </c>
       <c r="C8" t="n">
-        <v>3.762802922481459</v>
+        <v>3.7299740552165</v>
       </c>
       <c r="D8" t="n">
-        <v>3.125625818656307</v>
+        <v>3.09603618672405</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1859040253053646</v>
+        <v>-0.1829245400964258</v>
       </c>
       <c r="F8" t="n">
-        <v>-9.511896380309352</v>
+        <v>-9.474831469846844</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5485443095308065</v>
+        <v>-0.5527984338458297</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.30310340340034</v>
+        <v>3.278314725130754</v>
       </c>
       <c r="J8" t="n">
-        <v>-16.76609808646352</v>
+        <v>-10.92834601486896</v>
       </c>
     </row>
     <row r="9">
@@ -1832,16 +1832,16 @@
         <v>-18.78125838933693</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.582006508074632</v>
+        <v>-3.562063661480992</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.30310340340034</v>
+        <v>-3.278314725130754</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-89.00326940324739</v>
+        <v>-24.58460814617296</v>
       </c>
     </row>
     <row r="10">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.696816564100545</v>
+        <v>-5.563768475740805</v>
       </c>
       <c r="C10" t="n">
-        <v>75.565206540316</v>
+        <v>23.38171515588723</v>
       </c>
       <c r="D10" t="n">
-        <v>60.63589626967103</v>
+        <v>23.10678826514726</v>
       </c>
       <c r="E10" t="n">
-        <v>15.85117438413948</v>
+        <v>42.32998546331976</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.314255571822361</v>
+        <v>0.7310756733642315</v>
       </c>
       <c r="G10" t="n">
-        <v>16.43823682671145</v>
+        <v>10.99940859250579</v>
       </c>
       <c r="H10" t="n">
-        <v>16.76609808646352</v>
+        <v>10.92834601486896</v>
       </c>
       <c r="I10" t="n">
-        <v>89.00326940324739</v>
+        <v>24.58460814617296</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Analisis/Ranking_Estadistico_HLN_DM.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Analisis/Ranking_Estadistico_HLN_DM.xlsx
@@ -601,10 +601,10 @@
         <v>0.375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01282201731032759</v>
+        <v>0.004388101543955188</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01386297768967421</v>
+        <v>0.002535966299040615</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06498615654567919</v>
+        <v>0.06657783537960374</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06600441838929333</v>
+        <v>0.06763749094517246</v>
       </c>
     </row>
     <row r="10">
@@ -1216,7 +1216,7 @@
         <v>1.480254781416335e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>1.786348846621877e-12</v>
+        <v>1.510615714961361e-06</v>
       </c>
       <c r="F2" t="n">
         <v>3.143424241791593e-06</v>
@@ -1231,7 +1231,7 @@
         <v>1.30892262983906e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001427792481607959</v>
+        <v>0.006872943992138003</v>
       </c>
     </row>
     <row r="3">
@@ -1250,7 +1250,7 @@
         <v>0.1392345048542072</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04136835760612301</v>
+        <v>0.09586215660673125</v>
       </c>
       <c r="F3" t="n">
         <v>1.638250922031403e-06</v>
@@ -1265,7 +1265,7 @@
         <v>0.3028324417273924</v>
       </c>
       <c r="J3" t="n">
-        <v>4.014213428327196e-07</v>
+        <v>3.01254876822199e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05810894325919702</v>
+        <v>0.02012931258132666</v>
       </c>
       <c r="F4" t="n">
         <v>1.765304885381624e-06</v>
@@ -1299,7 +1299,7 @@
         <v>0.502421808101027</v>
       </c>
       <c r="J4" t="n">
-        <v>4.306503971207576e-07</v>
+        <v>3.217468258487344e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.786348846621877e-12</v>
+        <v>1.510615714961361e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04136835760612301</v>
+        <v>0.09586215660673125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05810894325919702</v>
+        <v>0.02012931258132666</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.246114405579647e-11</v>
+        <v>1.803747326389882e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9661412312661364</v>
+        <v>0.01288173122514502</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8608817972672327</v>
+        <v>0.02457370594547625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04617676461249665</v>
+        <v>0.3137386149345722</v>
       </c>
       <c r="J5" t="n">
-        <v>1.163064689002624e-08</v>
+        <v>3.218905919588622e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1352,7 +1352,7 @@
         <v>1.765304885381624e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>2.246114405579647e-11</v>
+        <v>1.803747326389882e-06</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>1.471373679784449e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4922838102681615</v>
+        <v>0.05325072225270833</v>
       </c>
     </row>
     <row r="7">
@@ -1386,7 +1386,7 @@
         <v>0.01139646693791385</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9661412312661364</v>
+        <v>0.01288173122514502</v>
       </c>
       <c r="F7" t="n">
         <v>7.719447554777048e-05</v>
@@ -1401,7 +1401,7 @@
         <v>0.0118974966548806</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35641213466964e-05</v>
+        <v>2.629998243697251e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1420,7 +1420,7 @@
         <v>0.02122358983114836</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8608817972672327</v>
+        <v>0.02457370594547625</v>
       </c>
       <c r="F8" t="n">
         <v>7.871524290248288e-05</v>
@@ -1435,7 +1435,7 @@
         <v>0.01685804575200978</v>
       </c>
       <c r="J8" t="n">
-        <v>3.483864252684654e-05</v>
+        <v>2.731430908720078e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1454,7 +1454,7 @@
         <v>0.502421808101027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04617676461249665</v>
+        <v>0.3137386149345722</v>
       </c>
       <c r="F9" t="n">
         <v>1.471373679784449e-06</v>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.978936606279348e-07</v>
+        <v>2.179381251021795e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001427792481607959</v>
+        <v>0.006872943992138003</v>
       </c>
       <c r="C10" t="n">
-        <v>4.014213428327196e-07</v>
+        <v>3.01254876822199e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>4.306503971207576e-07</v>
+        <v>3.217468258487344e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>1.163064689002624e-08</v>
+        <v>3.218905919588622e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4922838102681615</v>
+        <v>0.05325072225270833</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35641213466964e-05</v>
+        <v>2.629998243697251e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.483864252684654e-05</v>
+        <v>2.731430908720078e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>2.978936606279348e-07</v>
+        <v>2.179381251021795e-07</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>18.76215102322204</v>
       </c>
       <c r="E2" t="n">
-        <v>183.1706732114317</v>
+        <v>18.69782472683895</v>
       </c>
       <c r="F2" t="n">
         <v>16.51380863805696</v>
@@ -1603,7 +1603,7 @@
         <v>19.15650276165442</v>
       </c>
       <c r="J2" t="n">
-        <v>5.563768475740805</v>
+        <v>4.030940872175816</v>
       </c>
     </row>
     <row r="3">
@@ -1622,7 +1622,7 @@
         <v>-1.704176298358961</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.587179642278933</v>
+        <v>-1.973663698962231</v>
       </c>
       <c r="F3" t="n">
         <v>-18.44296674331745</v>
@@ -1637,7 +1637,7 @@
         <v>-1.126883096868611</v>
       </c>
       <c r="J3" t="n">
-        <v>-23.38171515588723</v>
+        <v>-24.5382785568941</v>
       </c>
     </row>
     <row r="4">
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.336658253554878</v>
+        <v>-3.137595145501581</v>
       </c>
       <c r="F4" t="n">
         <v>-18.21125479950634</v>
@@ -1671,7 +1671,7 @@
         <v>0.7133445801181342</v>
       </c>
       <c r="J4" t="n">
-        <v>-23.10678826514726</v>
+        <v>-24.26826760023854</v>
       </c>
     </row>
     <row r="5">
@@ -1681,31 +1681,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-183.1706732114317</v>
+        <v>-18.69782472683895</v>
       </c>
       <c r="C5" t="n">
-        <v>2.587179642278933</v>
+        <v>1.973663698962231</v>
       </c>
       <c r="D5" t="n">
-        <v>2.336658253554878</v>
+        <v>3.137595145501581</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-120.1063297726486</v>
+        <v>-18.1449514972347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04424975004056525</v>
+        <v>-3.496456881586686</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1829245400964258</v>
+        <v>-2.981977649605745</v>
       </c>
       <c r="I5" t="n">
-        <v>2.505605888927604</v>
+        <v>1.09939767802291</v>
       </c>
       <c r="J5" t="n">
-        <v>-42.32998546331976</v>
+        <v>-24.26644468315485</v>
       </c>
     </row>
     <row r="6">
@@ -1724,7 +1724,7 @@
         <v>18.21125479950634</v>
       </c>
       <c r="E6" t="n">
-        <v>120.1063297726486</v>
+        <v>18.1449514972347</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>18.78125838933693</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.7310756733642315</v>
+        <v>-2.400608331026901</v>
       </c>
     </row>
     <row r="7">
@@ -1758,7 +1758,7 @@
         <v>3.597807817614061</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04424975004056525</v>
+        <v>3.496456881586686</v>
       </c>
       <c r="F7" t="n">
         <v>-9.50747858442066</v>
@@ -1773,7 +1773,7 @@
         <v>3.562063661480992</v>
       </c>
       <c r="J7" t="n">
-        <v>-10.99940859250579</v>
+        <v>-11.47502573868122</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         <v>3.09603618672405</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1829245400964258</v>
+        <v>2.981977649605745</v>
       </c>
       <c r="F8" t="n">
         <v>-9.474831469846844</v>
@@ -1807,7 +1807,7 @@
         <v>3.278314725130754</v>
       </c>
       <c r="J8" t="n">
-        <v>-10.92834601486896</v>
+        <v>-11.40000679487877</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1826,7 @@
         <v>-0.7133445801181342</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.505605888927604</v>
+        <v>-1.09939767802291</v>
       </c>
       <c r="F9" t="n">
         <v>-18.78125838933693</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-24.58460814617296</v>
+        <v>-25.91021298372895</v>
       </c>
     </row>
     <row r="10">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.563768475740805</v>
+        <v>-4.030940872175816</v>
       </c>
       <c r="C10" t="n">
-        <v>23.38171515588723</v>
+        <v>24.5382785568941</v>
       </c>
       <c r="D10" t="n">
-        <v>23.10678826514726</v>
+        <v>24.26826760023854</v>
       </c>
       <c r="E10" t="n">
-        <v>42.32998546331976</v>
+        <v>24.26644468315485</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7310756733642315</v>
+        <v>2.400608331026901</v>
       </c>
       <c r="G10" t="n">
-        <v>10.99940859250579</v>
+        <v>11.47502573868122</v>
       </c>
       <c r="H10" t="n">
-        <v>10.92834601486896</v>
+        <v>11.40000679487877</v>
       </c>
       <c r="I10" t="n">
-        <v>24.58460814617296</v>
+        <v>25.91021298372895</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Analisis/Ranking_Estadistico_HLN_DM.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Analisis/Ranking_Estadistico_HLN_DM.xlsx
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06657783537960374</v>
+        <v>0.0654829597619042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06763749094517246</v>
+        <v>0.06650551749527865</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1231,7 @@
         <v>1.30892262983906e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006872943992138003</v>
+        <v>0.001541626942091812</v>
       </c>
     </row>
     <row r="3">
@@ -1265,7 +1265,7 @@
         <v>0.3028324417273924</v>
       </c>
       <c r="J3" t="n">
-        <v>3.01254876822199e-07</v>
+        <v>5.519621644189954e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1299,7 +1299,7 @@
         <v>0.502421808101027</v>
       </c>
       <c r="J4" t="n">
-        <v>3.217468258487344e-07</v>
+        <v>5.747349651752387e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1333,7 +1333,7 @@
         <v>0.3137386149345722</v>
       </c>
       <c r="J5" t="n">
-        <v>3.218905919588622e-07</v>
+        <v>5.732637271549379e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1367,7 +1367,7 @@
         <v>1.471373679784449e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05325072225270833</v>
+        <v>0.2072896439900933</v>
       </c>
     </row>
     <row r="7">
@@ -1401,7 +1401,7 @@
         <v>0.0118974966548806</v>
       </c>
       <c r="J7" t="n">
-        <v>2.629998243697251e-05</v>
+        <v>3.790407490744663e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1435,7 +1435,7 @@
         <v>0.01685804575200978</v>
       </c>
       <c r="J8" t="n">
-        <v>2.731430908720078e-05</v>
+        <v>3.984373344523284e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.179381251021795e-07</v>
+        <v>4.088403220414705e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006872943992138003</v>
+        <v>0.001541626942091812</v>
       </c>
       <c r="C10" t="n">
-        <v>3.01254876822199e-07</v>
+        <v>5.519621644189954e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>3.217468258487344e-07</v>
+        <v>5.747349651752387e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>3.218905919588622e-07</v>
+        <v>5.732637271549379e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05325072225270833</v>
+        <v>0.2072896439900933</v>
       </c>
       <c r="G10" t="n">
-        <v>2.629998243697251e-05</v>
+        <v>3.790407490744663e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.731430908720078e-05</v>
+        <v>3.984373344523284e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>2.179381251021795e-07</v>
+        <v>4.088403220414705e-07</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>19.15650276165442</v>
       </c>
       <c r="J2" t="n">
-        <v>4.030940872175816</v>
+        <v>5.481239140583743</v>
       </c>
     </row>
     <row r="3">
@@ -1637,7 +1637,7 @@
         <v>-1.126883096868611</v>
       </c>
       <c r="J3" t="n">
-        <v>-24.5382785568941</v>
+        <v>-22.16110928828618</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1671,7 @@
         <v>0.7133445801181342</v>
       </c>
       <c r="J4" t="n">
-        <v>-24.26826760023854</v>
+        <v>-22.01068974261407</v>
       </c>
     </row>
     <row r="5">
@@ -1705,7 +1705,7 @@
         <v>1.09939767802291</v>
       </c>
       <c r="J5" t="n">
-        <v>-24.26644468315485</v>
+        <v>-22.02019625385685</v>
       </c>
     </row>
     <row r="6">
@@ -1739,7 +1739,7 @@
         <v>18.78125838933693</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.400608331026901</v>
+        <v>-1.413290153130115</v>
       </c>
     </row>
     <row r="7">
@@ -1773,7 +1773,7 @@
         <v>3.562063661480992</v>
       </c>
       <c r="J7" t="n">
-        <v>-11.47502573868122</v>
+        <v>-10.76909941703354</v>
       </c>
     </row>
     <row r="8">
@@ -1807,7 +1807,7 @@
         <v>3.278314725130754</v>
       </c>
       <c r="J8" t="n">
-        <v>-11.40000679487877</v>
+        <v>-10.67586134068657</v>
       </c>
     </row>
     <row r="9">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-25.91021298372895</v>
+        <v>-23.30977423815266</v>
       </c>
     </row>
     <row r="10">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.030940872175816</v>
+        <v>-5.481239140583743</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5382785568941</v>
+        <v>22.16110928828618</v>
       </c>
       <c r="D10" t="n">
-        <v>24.26826760023854</v>
+        <v>22.01068974261407</v>
       </c>
       <c r="E10" t="n">
-        <v>24.26644468315485</v>
+        <v>22.02019625385685</v>
       </c>
       <c r="F10" t="n">
-        <v>2.400608331026901</v>
+        <v>1.413290153130115</v>
       </c>
       <c r="G10" t="n">
-        <v>11.47502573868122</v>
+        <v>10.76909941703354</v>
       </c>
       <c r="H10" t="n">
-        <v>11.40000679487877</v>
+        <v>10.67586134068657</v>
       </c>
       <c r="I10" t="n">
-        <v>25.91021298372895</v>
+        <v>23.30977423815266</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
